--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Homework/level_2/files/sample_translation.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Homework/level_2/files/sample_translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/Moodle/Courses/LDM Part 2/Modul 1/Homework_Solutions/level_2/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/PycharmProjects/LDM-2022/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Homework/level_2/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED45852-2CC7-2848-AA5D-BED3C66DB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A812D2-00F2-4D4F-AFA1-C6C9E26FCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{6492FA45-33A2-6A42-BE22-EF3663E6CC5F}"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="27640" windowHeight="16880" xr2:uid="{6492FA45-33A2-6A42-BE22-EF3663E6CC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,10 @@
   <authors>
     <author>tc={B7950239-EB8F-D743-AF03-15D13FFA89C8}</author>
     <author>tc={EF3ECA8E-6C36-AB4D-AEEC-7826FC59AA7A}</author>
+    <author>tc={3E23CC77-7C0B-844C-B0B4-6281F7005D61}</author>
+    <author>tc={1A62A824-1CF0-E84C-87B7-47BDDB3D1EA8}</author>
     <author>tc={D30CE5A2-6A96-C247-9C2B-661E10F30EB1}</author>
+    <author>tc={C0D08455-4664-944C-A4A9-7F698700A87C}</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B7950239-EB8F-D743-AF03-15D13FFA89C8}">
@@ -58,12 +61,36 @@
     This is a target comment.</t>
       </text>
     </comment>
-    <comment ref="D5" authorId="2" shapeId="0" xr:uid="{D30CE5A2-6A96-C247-9C2B-661E10F30EB1}">
+    <comment ref="B3" authorId="2" shapeId="0" xr:uid="{3E23CC77-7C0B-844C-B0B4-6281F7005D61}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is a modification date comment.</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="3" shapeId="0" xr:uid="{1A62A824-1CF0-E84C-87B7-47BDDB3D1EA8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is another modification date comment.</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="4" shapeId="0" xr:uid="{D30CE5A2-6A96-C247-9C2B-661E10F30EB1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This is another target comment.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="5" shapeId="0" xr:uid="{C0D08455-4664-944C-A4A9-7F698700A87C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is a creation date comment.</t>
       </text>
     </comment>
   </commentList>
@@ -198,6 +225,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Christian Wecke" id="{32D4D719-1389-4540-9967-212FF85F56C0}" userId="5b8b0958a56b301f" providerId="Windows Live"/>
   <person displayName="Eric Wilke | Loctimize GmbH" id="{74DB911B-0155-D04C-A2D1-006F640BC17C}" userId="S::wilke@loctimize.com::93ffa990-0cbb-40ab-b09f-a797724040e6" providerId="AD"/>
 </personList>
 </file>
@@ -505,8 +533,17 @@
   <threadedComment ref="D2" dT="2022-05-24T12:10:16.26" personId="{74DB911B-0155-D04C-A2D1-006F640BC17C}" id="{EF3ECA8E-6C36-AB4D-AEEC-7826FC59AA7A}">
     <text>This is a target comment.</text>
   </threadedComment>
+  <threadedComment ref="B3" dT="2022-06-16T15:44:36.84" personId="{32D4D719-1389-4540-9967-212FF85F56C0}" id="{3E23CC77-7C0B-844C-B0B4-6281F7005D61}">
+    <text>This is a modification date comment.</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2022-06-16T15:44:51.88" personId="{32D4D719-1389-4540-9967-212FF85F56C0}" id="{1A62A824-1CF0-E84C-87B7-47BDDB3D1EA8}">
+    <text>This is another modification date comment.</text>
+  </threadedComment>
   <threadedComment ref="D5" dT="2022-05-24T12:10:27.23" personId="{74DB911B-0155-D04C-A2D1-006F640BC17C}" id="{D30CE5A2-6A96-C247-9C2B-661E10F30EB1}">
     <text>This is another target comment.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-06-16T15:44:20.21" personId="{32D4D719-1389-4540-9967-212FF85F56C0}" id="{C0D08455-4664-944C-A4A9-7F698700A87C}">
+    <text>This is a creation date comment.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -515,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BACF38A-CA39-894A-A6AD-1F0CB5FA53A3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,6 +666,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033FBBAA1BE071D4B8444C5C9C28782C8" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="de548722d27cd508085855d69f661948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc2a8800-0ce7-40c2-8200-3a8c152868ba" xmlns:ns3="6e8def6e-378a-40df-8842-fa93ef8f3c1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b0cb2b0c94d59d70fca913d112f0e66" ns2:_="" ns3:_="">
     <xsd:import namespace="cc2a8800-0ce7-40c2-8200-3a8c152868ba"/>
@@ -831,15 +877,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -852,13 +889,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3738D7CE-95FC-4CBB-8481-F267EEDCE669}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7526F5A-8A93-4035-BFC9-09E9FC992E90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7526F5A-8A93-4035-BFC9-09E9FC992E90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3738D7CE-95FC-4CBB-8481-F267EEDCE669}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc2a8800-0ce7-40c2-8200-3a8c152868ba"/>
+    <ds:schemaRef ds:uri="6e8def6e-378a-40df-8842-fa93ef8f3c1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0402326-0C87-43EC-AECB-BCAB1CD6CFC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0402326-0C87-43EC-AECB-BCAB1CD6CFC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cc2a8800-0ce7-40c2-8200-3a8c152868ba"/>
+    <ds:schemaRef ds:uri="6e8def6e-378a-40df-8842-fa93ef8f3c1d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>